--- a/downloaded_files/STRS311_Lecture-35242.xlsx
+++ b/downloaded_files/STRS311_Lecture-35242.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Raghad Nader Mohamed Sayed Abdelhalim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4210192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا محمد فايد عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Mohamed Fayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230032</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -877,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4800712963</x:v>
+        <x:v>45933.6675900463</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4229493866</x:v>
+        <x:v>45907.4800712963</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4149745023</x:v>
+        <x:v>45907.4229493866</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6771318287</x:v>
+        <x:v>45907.4149745023</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.9582907407</x:v>
+        <x:v>45907.6771318287</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4160966782</x:v>
+        <x:v>45915.9582907407</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4250551273</x:v>
+        <x:v>45907.4160966782</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4166217593</x:v>
+        <x:v>45907.4250551273</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45907.4166217593</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.958424919</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45915.958424919</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6655195602</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.450612419</x:v>
+        <x:v>45906.6655195602</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9589908218</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45915.9589908218</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/STRS311_Lecture-35242.xlsx
+++ b/downloaded_files/STRS311_Lecture-35242.xlsx
@@ -1389,11 +1389,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concrete Structures  (STRS311) Location : [20506]20506-45-الجيزة الرئيسي Time : Thursday(14:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concrete Structures  (STRS311) Location : [20506]20506-45-الجيزة الرئيسي Time : Thursday(14:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concrete Structures  (STRS311) Location : [20506]20506-45-الجيزة الرئيسي Time : Thursday(14:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concrete Structures  (STRS311) Location : [20506]20506-45-الجيزة الرئيسي Time : Thursday(14:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concrete Structures  (STRS311) Location : [20506]20506-45-الجيزة الرئيسي Time : Thursday(14:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concrete Structures  (STRS311) Location : [20506]20506-45-الجيزة الرئيسي Time : Thursday(14:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/STRS311_Lecture-35242.xlsx
+++ b/downloaded_files/STRS311_Lecture-35242.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Marly Refaat Farouk Adel-Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد كمال عبد الجواد عبد الجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed kamal Abdelgawad Abdelgawad</x:t>
   </x:si>
   <x:si>
     <x:t>1210302</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -645,7 +654,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.680625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.390625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.240625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45942.5750139236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.958424919</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45915.958424919</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6655195602</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.450612419</x:v>
+        <x:v>45906.6655195602</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.9589908218</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45915.9589908218</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
